--- a/Tabop.xlsx
+++ b/Tabop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Franco\Escritorio\JOSUE\Universidad\5° Semestre\Seminario de Traductores de Leguaje 1\Practica1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E9987C-6507-4386-95CA-1EBA344F52EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AB468-9176-4315-BAA3-06BEDBCB5463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="240" windowWidth="14220" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="301">
   <si>
     <t>Conjunto de Instrucciones de HC12</t>
   </si>
@@ -927,7 +927,7 @@
     <t>B7C6</t>
   </si>
   <si>
-    <t>IDAA</t>
+    <t>Cero</t>
   </si>
 </sst>
 </file>
@@ -1303,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F379"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,8 +2570,8 @@
       <c r="C66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="3">
-        <v>0</v>
+      <c r="D66" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>2</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>2</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>2</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>2</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>2</v>

--- a/Tabop.xlsx
+++ b/Tabop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AB468-9176-4315-BAA3-06BEDBCB5463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891798B4-AEE8-40BE-823A-728ECD2E682D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="240" windowWidth="14220" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="14220" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="302">
   <si>
     <t>Conjunto de Instrucciones de HC12</t>
   </si>
@@ -928,6 +928,9 @@
   </si>
   <si>
     <t>Cero</t>
+  </si>
+  <si>
+    <t>JMP</t>
   </si>
 </sst>
 </file>
@@ -967,7 +970,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1001,11 +1004,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1021,6 +1035,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F379"/>
+  <dimension ref="A1:F380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C381" sqref="C381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8840,6 +8858,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D380" s="8">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
